--- a/Jogos_do_Dia/2024-01-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>2.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.37</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.86</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="M2" t="n">
         <v>1.36</v>
@@ -718,10 +718,10 @@
         <v>3.61</v>
       </c>
       <c r="S2" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="U2" t="n">
         <v>1.7</v>
@@ -830,13 +830,13 @@
         <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.73</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="M3" t="n">
         <v>1.35</v>
@@ -857,10 +857,10 @@
         <v>4.01</v>
       </c>
       <c r="S3" t="n">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="U3" t="n">
         <v>1.57</v>
@@ -969,13 +969,13 @@
         <v>3.36</v>
       </c>
       <c r="J4" t="n">
-        <v>2.49</v>
+        <v>2.26</v>
       </c>
       <c r="K4" t="n">
-        <v>3.71</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>2.83</v>
+        <v>2.9</v>
       </c>
       <c r="M4" t="n">
         <v>1.36</v>
@@ -996,10 +996,10 @@
         <v>3.61</v>
       </c>
       <c r="S4" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="U4" t="n">
         <v>1.62</v>
@@ -1108,13 +1108,13 @@
         <v>2.85</v>
       </c>
       <c r="J5" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.73</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.3</v>
@@ -1135,10 +1135,10 @@
         <v>3.78</v>
       </c>
       <c r="S5" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="U5" t="n">
         <v>1.53</v>

--- a/Jogos_do_Dia/2024-01-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>2.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="M2" t="n">
         <v>1.36</v>
@@ -718,10 +718,10 @@
         <v>3.61</v>
       </c>
       <c r="S2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
         <v>1.7</v>
@@ -739,10 +739,10 @@
         <v>1.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AB2" t="n">
         <v>1.08</v>
@@ -830,13 +830,13 @@
         <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.35</v>
@@ -857,10 +857,10 @@
         <v>4.01</v>
       </c>
       <c r="S3" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="U3" t="n">
         <v>1.57</v>
@@ -878,10 +878,10 @@
         <v>1.62</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AB3" t="n">
         <v>1.51</v>
@@ -969,13 +969,13 @@
         <v>3.36</v>
       </c>
       <c r="J4" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M4" t="n">
         <v>1.36</v>
@@ -996,10 +996,10 @@
         <v>3.61</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="T4" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="U4" t="n">
         <v>1.62</v>
@@ -1017,10 +1017,10 @@
         <v>1.52</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AB4" t="n">
         <v>1.76</v>
@@ -1108,13 +1108,13 @@
         <v>2.85</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.3</v>
@@ -1135,10 +1135,10 @@
         <v>3.78</v>
       </c>
       <c r="S5" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T5" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="U5" t="n">
         <v>1.53</v>
@@ -1156,10 +1156,10 @@
         <v>1.42</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AB5" t="n">
         <v>1.27</v>
